--- a/final_df_prueba_santi_FI1510_FF1311.xlsx
+++ b/final_df_prueba_santi_FI1510_FF1311.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\ARKAD\MODEL-VOLUMEN\models\Open-closeVolum_v3\out\accuracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B57274-4A23-4423-B157-2EAE59D21CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F5A7F-AF0B-4234-B04C-F01D0C406F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,13 +38,7 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>date-SPY</t>
-  </si>
-  <si>
     <t>direction_SPY</t>
-  </si>
-  <si>
-    <t>prediction</t>
   </si>
   <si>
     <t>L0-open-SPY</t>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>proba(1)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>pred</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,25 +439,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">

--- a/final_df_prueba_santi_FI1510_FF1311.xlsx
+++ b/final_df_prueba_santi_FI1510_FF1311.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F5A7F-AF0B-4234-B04C-F01D0C406F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27C547-70D2-4C27-8F3C-75A84DE8F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>pred</t>
+    <t>toggle_false</t>
   </si>
 </sst>
 </file>
@@ -426,12 +426,13 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
